--- a/result/compare_result/0726/调整的传递式迁移.xlsx
+++ b/result/compare_result/0726/调整的传递式迁移.xlsx
@@ -30,7 +30,7 @@
     <t>传递式迁移</t>
   </si>
   <si>
-    <t>调参后传递式迁移</t>
+    <t>调参后的传递式迁移</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -98,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -121,23 +122,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +143,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -174,90 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +265,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,175 +343,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,75 +459,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -563,161 +491,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,19 +1064,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,11 +1089,12 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1110,11 +1107,12 @@
       <c r="D2" s="1">
         <v>0.94</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2">
+        <v>0.941</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1127,11 +1125,12 @@
       <c r="D3" s="1">
         <v>0.669</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.684</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,11 +1143,12 @@
       <c r="D4" s="1">
         <v>0.793</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,11 +1161,12 @@
       <c r="D5" s="1">
         <v>0.669</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2">
+        <v>0.685</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,11 +1179,12 @@
       <c r="D6" s="1">
         <v>0.699</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2">
+        <v>0.699</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,11 +1197,12 @@
       <c r="D7" s="1">
         <v>0.885</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2">
+        <v>0.926</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,11 +1215,12 @@
       <c r="D8" s="1">
         <v>0.843</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2">
+        <v>0.852</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1229,11 +1233,12 @@
       <c r="D9" s="1">
         <v>0.817</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <v>0.852</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,11 +1251,12 @@
       <c r="D10" s="1">
         <v>0.784</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2">
+        <v>0.818</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1263,11 +1269,12 @@
       <c r="D11" s="1">
         <v>0.604</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2">
+        <v>0.627</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1280,11 +1287,12 @@
       <c r="D12" s="1">
         <v>0.703</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2">
+        <v>0.705</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,11 +1305,12 @@
       <c r="D13" s="1">
         <v>0.748</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2">
+        <v>0.756</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,11 +1323,12 @@
       <c r="D14" s="1">
         <v>0.642</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1331,11 +1341,12 @@
       <c r="D15" s="1">
         <v>0.837</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2">
+        <v>0.847</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,11 +1359,12 @@
       <c r="D16" s="1">
         <v>0.715</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1365,11 +1377,12 @@
       <c r="D17" s="1">
         <v>0.85</v>
       </c>
-      <c r="E17" s="1">
-        <v>0.852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1382,11 +1395,12 @@
       <c r="D18" s="1">
         <v>0.709</v>
       </c>
-      <c r="E18" s="1">
-        <v>0.721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1399,11 +1413,12 @@
       <c r="D19" s="1">
         <v>0.648</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="2">
+        <v>0.623</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1416,11 +1431,12 @@
       <c r="D20" s="1">
         <v>0.716</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2">
+        <v>0.733</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1433,9 +1449,10 @@
       <c r="D21" s="1">
         <v>0.701</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.714</v>
-      </c>
+      <c r="E21" s="2">
+        <v>0.708</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
